--- a/database/data.xlsx
+++ b/database/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TFG\TFG-PAP\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505EDF23-70ED-4924-AD8D-F65BBF7FFBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041A3C18-1F1E-4443-B1BD-F091B559A53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A2828F54-C3DD-44CF-894E-B946D6622387}"/>
   </bookViews>
@@ -1176,7 +1176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1195,14 +1195,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1539,296 +1537,296 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37BD6E7-65F3-4A5E-A55C-9CBF3B5C6371}">
   <dimension ref="A1:CV590"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BR1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="CM1" sqref="CM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:100" s="15" customFormat="1" ht="16">
-      <c r="I1" s="15" t="s">
+    <row r="1" spans="1:100" ht="16">
+      <c r="I1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="15" t="s">
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AA1" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AB1" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AC1" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AD1" t="s">
         <v>21</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AE1" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AF1" t="s">
         <v>23</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AG1" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AH1" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AI1" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="15" t="s">
+      <c r="AJ1" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AK1" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AL1" t="s">
         <v>29</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AM1" t="s">
         <v>30</v>
       </c>
-      <c r="AN1" s="15" t="s">
+      <c r="AN1" t="s">
         <v>31</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AO1" t="s">
         <v>32</v>
       </c>
-      <c r="AP1" s="15" t="s">
+      <c r="AP1" t="s">
         <v>33</v>
       </c>
-      <c r="AQ1" s="15" t="s">
+      <c r="AQ1" t="s">
         <v>34</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="AR1" t="s">
         <v>35</v>
       </c>
-      <c r="AS1" s="15" t="s">
+      <c r="AS1" t="s">
         <v>36</v>
       </c>
-      <c r="AT1" s="15" t="s">
+      <c r="AT1" t="s">
         <v>37</v>
       </c>
-      <c r="AU1" s="15" t="s">
+      <c r="AU1" t="s">
         <v>38</v>
       </c>
-      <c r="AV1" s="15" t="s">
+      <c r="AV1" t="s">
         <v>39</v>
       </c>
-      <c r="AW1" s="15" t="s">
+      <c r="AW1" t="s">
         <v>40</v>
       </c>
-      <c r="AX1" s="15" t="s">
+      <c r="AX1" t="s">
         <v>41</v>
       </c>
-      <c r="AY1" s="15" t="s">
+      <c r="AY1" t="s">
         <v>42</v>
       </c>
-      <c r="AZ1" s="15" t="s">
+      <c r="AZ1" t="s">
         <v>43</v>
       </c>
-      <c r="BA1" s="15" t="s">
+      <c r="BA1" t="s">
         <v>44</v>
       </c>
-      <c r="BB1" s="15" t="s">
+      <c r="BB1" t="s">
         <v>45</v>
       </c>
-      <c r="BC1" s="15" t="s">
+      <c r="BC1" t="s">
         <v>46</v>
       </c>
-      <c r="BD1" s="15" t="s">
+      <c r="BD1" t="s">
         <v>47</v>
       </c>
-      <c r="BE1" s="15" t="s">
+      <c r="BE1" t="s">
         <v>48</v>
       </c>
-      <c r="BF1" s="15" t="s">
+      <c r="BF1" t="s">
         <v>49</v>
       </c>
-      <c r="BG1" s="15" t="s">
+      <c r="BG1" t="s">
         <v>50</v>
       </c>
-      <c r="BH1" s="15" t="s">
+      <c r="BH1" t="s">
         <v>51</v>
       </c>
-      <c r="BI1" s="15" t="s">
+      <c r="BI1" t="s">
         <v>52</v>
       </c>
-      <c r="BJ1" s="15" t="s">
+      <c r="BJ1" t="s">
         <v>53</v>
       </c>
-      <c r="BK1" s="15" t="s">
+      <c r="BK1" t="s">
         <v>54</v>
       </c>
-      <c r="BL1" s="15" t="s">
+      <c r="BL1" t="s">
         <v>55</v>
       </c>
-      <c r="BM1" s="15" t="s">
+      <c r="BM1" t="s">
         <v>56</v>
       </c>
-      <c r="BN1" s="15" t="s">
+      <c r="BN1" t="s">
         <v>57</v>
       </c>
-      <c r="BO1" s="15" t="s">
+      <c r="BO1" t="s">
         <v>58</v>
       </c>
-      <c r="BP1" s="15" t="s">
+      <c r="BP1" t="s">
         <v>59</v>
       </c>
-      <c r="BQ1" s="15" t="s">
+      <c r="BQ1" t="s">
         <v>60</v>
       </c>
-      <c r="BR1" s="15" t="s">
+      <c r="BR1" t="s">
         <v>61</v>
       </c>
-      <c r="BS1" s="15" t="s">
+      <c r="BS1" t="s">
         <v>62</v>
       </c>
-      <c r="BT1" s="15" t="s">
+      <c r="BT1" t="s">
         <v>63</v>
       </c>
-      <c r="BU1" s="15" t="s">
+      <c r="BU1" t="s">
         <v>64</v>
       </c>
-      <c r="BV1" s="15" t="s">
+      <c r="BV1" t="s">
         <v>65</v>
       </c>
-      <c r="BW1" s="15" t="s">
+      <c r="BW1" t="s">
         <v>66</v>
       </c>
-      <c r="BX1" s="15" t="s">
+      <c r="BX1" t="s">
         <v>67</v>
       </c>
-      <c r="BY1" s="15" t="s">
+      <c r="BY1" t="s">
         <v>68</v>
       </c>
-      <c r="BZ1" s="15" t="s">
+      <c r="BZ1" t="s">
         <v>69</v>
       </c>
-      <c r="CA1" s="15" t="s">
+      <c r="CA1" t="s">
         <v>70</v>
       </c>
-      <c r="CB1" s="16" t="s">
+      <c r="CB1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="CC1" s="14" t="s">
+      <c r="CC1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="CD1" s="15" t="s">
+      <c r="CD1" t="s">
         <v>72</v>
       </c>
-      <c r="CE1" s="15" t="s">
+      <c r="CE1" t="s">
         <v>73</v>
       </c>
-      <c r="CF1" s="15" t="s">
+      <c r="CF1" t="s">
         <v>74</v>
       </c>
-      <c r="CG1" s="15" t="s">
+      <c r="CG1" t="s">
         <v>75</v>
       </c>
-      <c r="CH1" s="14" t="s">
+      <c r="CH1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="CI1" s="15" t="s">
+      <c r="CI1" t="s">
         <v>76</v>
       </c>
-      <c r="CJ1" s="15" t="s">
+      <c r="CJ1" t="s">
         <v>77</v>
       </c>
-      <c r="CK1" s="15" t="s">
+      <c r="CK1" t="s">
         <v>78</v>
       </c>
-      <c r="CL1" s="14" t="s">
+      <c r="CL1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="CM1" s="17" t="s">
+      <c r="CM1" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="CN1" s="14" t="s">
+      <c r="CN1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="CO1" s="14" t="s">
+      <c r="CO1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="CP1" s="15" t="s">
+      <c r="CP1" t="s">
         <v>79</v>
       </c>
-      <c r="CQ1" s="15" t="s">
+      <c r="CQ1" t="s">
         <v>80</v>
       </c>
-      <c r="CR1" s="14" t="s">
+      <c r="CR1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="CS1" s="15" t="s">
+      <c r="CS1" t="s">
         <v>81</v>
       </c>
-      <c r="CT1" s="15" t="s">
+      <c r="CT1" t="s">
         <v>82</v>
       </c>
-      <c r="CU1" s="15" t="s">
+      <c r="CU1" t="s">
         <v>83</v>
       </c>
-      <c r="CV1" s="14" t="s">
+      <c r="CV1" s="1" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:100" ht="116.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2111,10 +2109,10 @@
     </row>
     <row r="3" spans="1:100">
       <c r="A3" s="1"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="3" t="s">
@@ -2399,10 +2397,10 @@
     </row>
     <row r="4" spans="1:100">
       <c r="A4" s="1"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="3" t="s">
@@ -2687,10 +2685,10 @@
     </row>
     <row r="5" spans="1:100">
       <c r="A5" s="1"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="3" t="s">
@@ -2975,10 +2973,10 @@
     </row>
     <row r="6" spans="1:100">
       <c r="A6" s="1"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="3" t="s">
@@ -3286,98 +3284,98 @@
       <c r="H7" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="12"/>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="12"/>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="12"/>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="12"/>
-      <c r="AV7" s="12"/>
-      <c r="AW7" s="12"/>
-      <c r="AX7" s="12"/>
-      <c r="AY7" s="12"/>
-      <c r="AZ7" s="12"/>
-      <c r="BA7" s="12"/>
-      <c r="BB7" s="12"/>
-      <c r="BC7" s="12"/>
-      <c r="BD7" s="12"/>
-      <c r="BE7" s="12"/>
-      <c r="BF7" s="12"/>
-      <c r="BG7" s="12"/>
-      <c r="BH7" s="12"/>
-      <c r="BI7" s="12"/>
-      <c r="BJ7" s="12"/>
-      <c r="BK7" s="12"/>
-      <c r="BL7" s="12"/>
-      <c r="BM7" s="12"/>
-      <c r="BN7" s="12"/>
-      <c r="BO7" s="12"/>
-      <c r="BP7" s="12"/>
-      <c r="BQ7" s="12"/>
-      <c r="BR7" s="12"/>
-      <c r="BS7" s="12"/>
-      <c r="BT7" s="12"/>
-      <c r="BU7" s="12"/>
-      <c r="BV7" s="12"/>
-      <c r="BW7" s="12"/>
-      <c r="BX7" s="12"/>
-      <c r="BY7" s="12"/>
-      <c r="BZ7" s="12"/>
-      <c r="CA7" s="12"/>
-      <c r="CB7" s="12"/>
-      <c r="CC7" s="12"/>
-      <c r="CD7" s="12"/>
-      <c r="CE7" s="12"/>
-      <c r="CF7" s="12"/>
-      <c r="CG7" s="12"/>
-      <c r="CH7" s="12"/>
-      <c r="CI7" s="12"/>
-      <c r="CJ7" s="12"/>
-      <c r="CK7" s="12"/>
-      <c r="CL7" s="12"/>
-      <c r="CM7" s="12"/>
-      <c r="CN7" s="12"/>
-      <c r="CO7" s="12"/>
-      <c r="CP7" s="12"/>
-      <c r="CQ7" s="12"/>
-      <c r="CR7" s="12"/>
-      <c r="CS7" s="12"/>
-      <c r="CT7" s="12"/>
-      <c r="CU7" s="12"/>
-      <c r="CV7" s="12"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="14"/>
+      <c r="BB7" s="14"/>
+      <c r="BC7" s="14"/>
+      <c r="BD7" s="14"/>
+      <c r="BE7" s="14"/>
+      <c r="BF7" s="14"/>
+      <c r="BG7" s="14"/>
+      <c r="BH7" s="14"/>
+      <c r="BI7" s="14"/>
+      <c r="BJ7" s="14"/>
+      <c r="BK7" s="14"/>
+      <c r="BL7" s="14"/>
+      <c r="BM7" s="14"/>
+      <c r="BN7" s="14"/>
+      <c r="BO7" s="14"/>
+      <c r="BP7" s="14"/>
+      <c r="BQ7" s="14"/>
+      <c r="BR7" s="14"/>
+      <c r="BS7" s="14"/>
+      <c r="BT7" s="14"/>
+      <c r="BU7" s="14"/>
+      <c r="BV7" s="14"/>
+      <c r="BW7" s="14"/>
+      <c r="BX7" s="14"/>
+      <c r="BY7" s="14"/>
+      <c r="BZ7" s="14"/>
+      <c r="CA7" s="14"/>
+      <c r="CB7" s="14"/>
+      <c r="CC7" s="14"/>
+      <c r="CD7" s="14"/>
+      <c r="CE7" s="14"/>
+      <c r="CF7" s="14"/>
+      <c r="CG7" s="14"/>
+      <c r="CH7" s="14"/>
+      <c r="CI7" s="14"/>
+      <c r="CJ7" s="14"/>
+      <c r="CK7" s="14"/>
+      <c r="CL7" s="14"/>
+      <c r="CM7" s="14"/>
+      <c r="CN7" s="14"/>
+      <c r="CO7" s="14"/>
+      <c r="CP7" s="14"/>
+      <c r="CQ7" s="14"/>
+      <c r="CR7" s="14"/>
+      <c r="CS7" s="14"/>
+      <c r="CT7" s="14"/>
+      <c r="CU7" s="14"/>
+      <c r="CV7" s="14"/>
     </row>
     <row r="8" spans="1:100">
       <c r="A8" s="8" t="s">
@@ -72349,14 +72347,42 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="CS7:CT7"/>
-    <mergeCell ref="CU7:CV7"/>
-    <mergeCell ref="CG7:CH7"/>
-    <mergeCell ref="CI7:CJ7"/>
-    <mergeCell ref="CK7:CL7"/>
-    <mergeCell ref="CM7:CN7"/>
-    <mergeCell ref="CO7:CP7"/>
-    <mergeCell ref="CQ7:CR7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="AW7:AX7"/>
+    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="BA7:BB7"/>
+    <mergeCell ref="BC7:BD7"/>
+    <mergeCell ref="BE7:BF7"/>
     <mergeCell ref="CE7:CF7"/>
     <mergeCell ref="BI7:BJ7"/>
     <mergeCell ref="BK7:BL7"/>
@@ -72369,42 +72395,14 @@
     <mergeCell ref="BY7:BZ7"/>
     <mergeCell ref="CA7:CB7"/>
     <mergeCell ref="CC7:CD7"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="AW7:AX7"/>
-    <mergeCell ref="AY7:AZ7"/>
-    <mergeCell ref="BA7:BB7"/>
-    <mergeCell ref="BC7:BD7"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="CS7:CT7"/>
+    <mergeCell ref="CU7:CV7"/>
+    <mergeCell ref="CG7:CH7"/>
+    <mergeCell ref="CI7:CJ7"/>
+    <mergeCell ref="CK7:CL7"/>
+    <mergeCell ref="CM7:CN7"/>
+    <mergeCell ref="CO7:CP7"/>
+    <mergeCell ref="CQ7:CR7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
